--- a/links.xlsx
+++ b/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/src/llm_presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B367FA8-C334-E84B-9E20-5ECF80635FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4147322-E6CA-1D43-AC2F-45BA554505A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" activeTab="1" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
+    <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
   </bookViews>
   <sheets>
     <sheet name="Важные" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Ресурсы" sheetId="4" r:id="rId4"/>
     <sheet name="Люди" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>Название</t>
   </si>
@@ -182,6 +182,120 @@
   </si>
   <si>
     <t>Из-за нейросетей люди деградируют</t>
+  </si>
+  <si>
+    <t>Аванесян Перспективы эффективного взаимодействия искусственного интеллекта и личности человека</t>
+  </si>
+  <si>
+    <t>Гараганов Влияние интеллектуальных технологий на обучение и развитие мозга. возможности нейросоциального интеллекта</t>
+  </si>
+  <si>
+    <t>Карр. Пустышка. Что Интернет делает с нашими мозгами</t>
+  </si>
+  <si>
+    <t>Дзялошинский. Когнитивные процессы человека и искусственный интеллект в контексте цифровой цивилизации</t>
+  </si>
+  <si>
+    <t>Монография</t>
+  </si>
+  <si>
+    <t>Емельяненко. Гипертекст, многозадачность и клиповое мышление в контексте ценностно-мировоззренческого анализа в системе духовной жизни социума</t>
+  </si>
+  <si>
+    <t>Манускрипт</t>
+  </si>
+  <si>
+    <t>Колин. Информационная антропология. поколение Next и новая угроза психологического расслоения человечества в информационном обществе</t>
+  </si>
+  <si>
+    <t>Емельяненко. Человек и интернет. диалектика знаний и информации</t>
+  </si>
+  <si>
+    <t>Философские проблемы искусственного интеллекта. Библиографический указатель</t>
+  </si>
+  <si>
+    <t>Tesla is dragging Apple into its upcoming fatal Autopilot crash trial</t>
+  </si>
+  <si>
+    <t>Нейросеть написала колонку для The Guardian</t>
+  </si>
+  <si>
+    <t>Каждый пятый россиянин скрывает использование ИИ на работе</t>
+  </si>
+  <si>
+    <t>Диссертация</t>
+  </si>
+  <si>
+    <t>Методика обучения основам искусственного интеллекта и анализа данных в курсе информатики на уровне среднего общего образования</t>
+  </si>
+  <si>
+    <t>Лоуренс Барсалу. Системы перцептивных символов</t>
+  </si>
+  <si>
+    <t>AI safety summit</t>
+  </si>
+  <si>
+    <t>Microsoft’s Bing is an emotionally manipulative liar, and people love it</t>
+  </si>
+  <si>
+    <t>AI at Davos 2024</t>
+  </si>
+  <si>
+    <t>Пять проблем, которые пока не может решить искусственный интеллект</t>
+  </si>
+  <si>
+    <t>Как ИИ-контент проклял интернет и почему это закономерно</t>
+  </si>
+  <si>
+    <t>Правительство утвердило дорожную карту Минэкономразвития по развитию ИИ до 2030 года</t>
+  </si>
+  <si>
+    <t>Креативное мышление: что это, как его развивать и где оно пригодится</t>
+  </si>
+  <si>
+    <t>Креативность: врожденный дар или приобретаемый навык</t>
+  </si>
+  <si>
+    <t>Цена удобства: как ИИ незаметно отнимает наши навыки</t>
+  </si>
+  <si>
+    <t>How Generative AI Will Change The Jobs Of Artists And Designers</t>
+  </si>
+  <si>
+    <t>Павенков О. В. Нормативистские концепции ценностей и ценностных ориентаций в социологической науке</t>
+  </si>
+  <si>
+    <t>Когнитивная разгрузка с ИИ: взлет интеллекта или деградация?</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект может привести к деградации человечества</t>
+  </si>
+  <si>
+    <t>Деградация программиста глазами ИИ: От магистра памяти к пользователю ChatGPT</t>
+  </si>
+  <si>
+    <t>Нейросети: обучение или деградация?</t>
+  </si>
+  <si>
+    <t>Анализ влияния ИИ (LLM) на когнитивные способности в 10-летней перспективе</t>
+  </si>
+  <si>
+    <t>Как программирование влияет на мозг и мышление</t>
+  </si>
+  <si>
+    <t>Том Грубер: Как искусственный интеллект может улучшить нашу память, работу и социальную жизнь</t>
+  </si>
+  <si>
+    <t>Искусственное отупление. Правда ли, что из-за нейросетей люди глупеют?</t>
+  </si>
+  <si>
+    <t>Влияет ли использование интернета и ИИ на нашу память: мнение ученых</t>
+  </si>
+  <si>
+    <t>Ученые: зависимость от ИИ снижает критическое мышление</t>
+  </si>
+  <si>
+    <t>«Ленивый мозг» – как ИИ влияет на когнитивные способности человека</t>
   </si>
 </sst>
 </file>
@@ -245,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -266,10 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -597,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C3027-6EDE-4E40-9029-6BA3722492EF}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -644,46 +755,46 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A17" si="0">A3+1</f>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -704,7 +815,7 @@
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -726,88 +837,291 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="D24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -824,6 +1138,19 @@
     <hyperlink ref="E10" r:id="rId10" xr:uid="{9F823B92-4880-1045-9D63-3CC3DC909F59}"/>
     <hyperlink ref="E11" r:id="rId11" xr:uid="{6F03F01A-4EF7-C746-B69B-57CD2F7C66DC}"/>
     <hyperlink ref="E12" r:id="rId12" xr:uid="{EA27D17E-E6F6-604F-87F2-38C0016F35C6}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{185E6035-8C12-1047-88DA-D32FDCE26437}"/>
+    <hyperlink ref="E14:E24" r:id="rId14" display="link" xr:uid="{A1908122-54D1-3446-A868-406175669989}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{0CB2BC83-2290-DD47-B2BB-B506BBD3F09A}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{1776D3CD-FC08-D947-8D98-ED3EBA96E817}"/>
+    <hyperlink ref="E16" r:id="rId17" xr:uid="{3C3D2B65-258F-AA47-AC4E-3649F6B58E93}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{1B1D713E-7C17-A64D-8FBE-8305F91CBB83}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{430DB22F-CD8B-BD41-8859-EFE99E17D7A1}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{CE842875-4273-124E-93F8-7BF32CFEAB2E}"/>
+    <hyperlink ref="E20" r:id="rId21" xr:uid="{DC3B7D15-6D10-0847-868D-A8CDBA79A7A2}"/>
+    <hyperlink ref="E21" r:id="rId22" xr:uid="{D1391990-51C0-C649-B1E9-62C9E51BB160}"/>
+    <hyperlink ref="E22" r:id="rId23" xr:uid="{11B27D51-3DC2-E84A-B3D4-65D75BA95890}"/>
+    <hyperlink ref="E23" r:id="rId24" xr:uid="{9EF48994-A63A-4245-B961-8B84AF0906C1}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{048D0543-17E8-0449-9F9E-9145BDA1DD5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A9040-34A2-E94F-AFC3-A572F8AE099D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -875,7 +1202,7 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -903,21 +1230,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -993,52 +1320,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="B11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="B12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="B13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="B14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1051,6 +1410,13 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{F1914651-EFBC-5F4D-B6C4-9D7471C4FB8B}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D991168D-53EF-E740-B41D-1BBA5E38364F}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{BD94BB23-1719-BB48-B39F-1FC632AAE0DB}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{74F4E9EE-A4FC-1749-B7A8-97BF6C7FFC0B}"/>
+    <hyperlink ref="E11:E15" r:id="rId10" display="link" xr:uid="{D66336A4-6039-9E48-A311-06AF6DEE9E36}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{157F3249-5FD2-E24E-81B0-C61822B531AB}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{01847CED-2BDA-B148-A586-454DFCFAAE2E}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{0B6325B8-5C1A-8741-B042-2571190A2E98}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{F43C402A-B67C-B84C-A582-E3796DF03F52}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{299B7038-01C9-014F-8D73-81095B7B0628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1058,18 +1424,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0644AAFA-5E9F-9740-AD42-2F06C5E6E921}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="95.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="109.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="66.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="4"/>
@@ -1120,7 +1486,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+        <f t="shared" ref="A4:A28" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1199,56 +1565,176 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1260,7 +1746,18 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{2A33EDEF-E610-0E49-A746-01B1F849B9A3}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{F765E164-4619-8A4B-BE0B-68B0DBD52AEC}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{7EDA2089-0739-C14E-86F6-791F8D5D07BD}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{56179E40-1A20-0845-9A06-376024B158E7}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{FC42E421-0284-8346-8194-AA3DA3E3B7E6}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{3CAC00C2-8D4E-3F4F-93DF-7F24C6FB5432}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{C924AC25-37E2-164F-A575-FB496B34F4E9}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{326CF95C-E576-824A-BAB5-9CDF739EF2EF}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{2135B4FD-8F52-6D4F-BF53-A61249628021}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{2BC519E2-7A40-644D-8C6E-F3797645590A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{3104FC2C-ECA2-4647-A856-4F40DD3E7094}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{3F49E0D3-271D-5A44-97DC-AC4DD5F5479D}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{3B3FC7D8-C07F-F547-B7D5-E6758046957B}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{7C646637-9022-9846-86FC-5E2142449122}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{83BB4566-55E6-2347-B3EF-3F231801C617}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{90369D53-372A-3344-9F7B-C954C22869BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1286,7 +1783,7 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1313,7 +1810,7 @@
     <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/src/llm_presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4147322-E6CA-1D43-AC2F-45BA554505A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01716B4B-027F-A846-B9DB-DE42F40B164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
+    <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" activeTab="2" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
   </bookViews>
   <sheets>
     <sheet name="Важные" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>Название</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>«Ленивый мозг» – как ИИ влияет на когнитивные способности человека</t>
+  </si>
+  <si>
+    <t>Диффузия инноваций</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C3027-6EDE-4E40-9029-6BA3722492EF}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A17" si="0">A3+1</f>
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1426,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0644AAFA-5E9F-9740-AD42-2F06C5E6E921}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A28" si="0">A3+1</f>
+        <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1706,7 +1709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1718,8 +1721,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="6"/>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="6"/>
@@ -1758,6 +1773,7 @@
     <hyperlink ref="E19" r:id="rId18" xr:uid="{7C646637-9022-9846-86FC-5E2142449122}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{83BB4566-55E6-2347-B3EF-3F231801C617}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{90369D53-372A-3344-9F7B-C954C22869BE}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{D54413BA-F2DA-8945-9184-0B7DC09AF248}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/src/llm_presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24344B5E-823E-CC45-B5C7-1AE3908386D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8D797-B3F2-1C46-AC71-3E72B8415F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Важные" sheetId="1" r:id="rId1"/>
-    <sheet name="Второстепенные" sheetId="2" r:id="rId2"/>
-    <sheet name="Прочее" sheetId="3" r:id="rId3"/>
-    <sheet name="НПА" sheetId="6" r:id="rId4"/>
-    <sheet name="Ресурсы" sheetId="4" r:id="rId5"/>
-    <sheet name="Люди" sheetId="5" r:id="rId6"/>
+    <sheet name="Самые важные" sheetId="7" r:id="rId1"/>
+    <sheet name="Важные" sheetId="1" r:id="rId2"/>
+    <sheet name="Второстепенные" sheetId="2" r:id="rId3"/>
+    <sheet name="Прочее" sheetId="3" r:id="rId4"/>
+    <sheet name="НПА" sheetId="6" r:id="rId5"/>
+    <sheet name="Ресурсы" sheetId="4" r:id="rId6"/>
+    <sheet name="Люди" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
   <si>
     <t>Название</t>
   </si>
@@ -330,6 +331,27 @@
   </si>
   <si>
     <t>press</t>
+  </si>
+  <si>
+    <t>Роль когнитивной психологии в системе научных знаний о человеке</t>
+  </si>
+  <si>
+    <t>Определения основных психических процессов</t>
+  </si>
+  <si>
+    <t>связь ценностей человека и влияние ИИ на него</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>SRC-001</t>
+  </si>
+  <si>
+    <t>SRC-002</t>
+  </si>
+  <si>
+    <t>SRC-003</t>
   </si>
 </sst>
 </file>
@@ -393,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -425,12 +447,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -750,11 +766,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C3027-6EDE-4E40-9029-6BA3722492EF}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583DE8D0-1F1C-9144-B814-750D9E9BB694}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="105.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9D0924CB-105A-2548-BFEB-F998798B3CAC}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D594A12B-2926-9240-B31E-951BA22ADF57}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{994E4335-88A9-164E-A140-87C8A5067F00}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{EB9D98CD-4AF3-7B47-B3A5-B1B0CBE59371}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2AE30559-A289-8B44-82DD-E7DDAC3B48D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C3027-6EDE-4E40-9029-6BA3722492EF}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -812,45 +957,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -858,13 +1007,13 @@
         <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -872,51 +1021,21 @@
         <v>89</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -925,123 +1044,114 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1049,35 +1159,32 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{A4E7C628-B66F-564D-BBE6-5EC9BF9E0BE0}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{A8368E4E-F152-6A4E-BB85-2D631481E00D}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E71C0DEA-EB19-1F45-898A-9B21AB1173D0}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{553223AB-9C6F-0C49-AC18-D004F667ECC2}"/>
-    <hyperlink ref="D24" r:id="rId5" xr:uid="{31807F6C-CDA6-5A43-A1EF-E45AB97F1D8F}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{9F823B92-4880-1045-9D63-3CC3DC909F59}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{6F03F01A-4EF7-C746-B69B-57CD2F7C66DC}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{185E6035-8C12-1047-88DA-D32FDCE26437}"/>
-    <hyperlink ref="D5" r:id="rId9" xr:uid="{0CB2BC83-2290-DD47-B2BB-B506BBD3F09A}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{1776D3CD-FC08-D947-8D98-ED3EBA96E817}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{3C3D2B65-258F-AA47-AC4E-3649F6B58E93}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{CCF0C40F-B5B8-9F4E-84BB-93EDAC52923A}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{99A63A84-AE3A-5547-84D5-1D1D5AEAD80C}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{13DB4C53-6D71-FC44-98E5-13CF2888095B}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{32D24A7D-4B6E-B048-8A4E-BAB48E5BCA64}"/>
-    <hyperlink ref="D10" r:id="rId16" xr:uid="{A304E3D8-3296-0848-8538-F4F542126F02}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{570504CE-CE9D-3E46-ABEB-F5D900B273A5}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{15D3986D-45EA-8B4A-A905-4FFEA0432521}"/>
-    <hyperlink ref="D16" r:id="rId19" xr:uid="{EA27D17E-E6F6-604F-87F2-38C0016F35C6}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{E417270B-9144-3F4E-BA35-63FF17C4CE93}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{553223AB-9C6F-0C49-AC18-D004F667ECC2}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{31807F6C-CDA6-5A43-A1EF-E45AB97F1D8F}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{9F823B92-4880-1045-9D63-3CC3DC909F59}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{6F03F01A-4EF7-C746-B69B-57CD2F7C66DC}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{185E6035-8C12-1047-88DA-D32FDCE26437}"/>
+    <hyperlink ref="D19" r:id="rId8" xr:uid="{3C3D2B65-258F-AA47-AC4E-3649F6B58E93}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{CCF0C40F-B5B8-9F4E-84BB-93EDAC52923A}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{99A63A84-AE3A-5547-84D5-1D1D5AEAD80C}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{13DB4C53-6D71-FC44-98E5-13CF2888095B}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{A304E3D8-3296-0848-8538-F4F542126F02}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{570504CE-CE9D-3E46-ABEB-F5D900B273A5}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{15D3986D-45EA-8B4A-A905-4FFEA0432521}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{EA27D17E-E6F6-604F-87F2-38C0016F35C6}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{E417270B-9144-3F4E-BA35-63FF17C4CE93}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{7DA0074E-6E4D-D949-B62E-4498E3A65299}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A9040-34A2-E94F-AFC3-A572F8AE099D}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1136,34 +1243,36 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>2</v>
@@ -1177,35 +1286,31 @@
         <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>2</v>
@@ -1214,10 +1319,10 @@
     <row r="10" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>2</v>
@@ -1226,10 +1331,10 @@
     <row r="11" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>2</v>
@@ -1241,7 +1346,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
@@ -1253,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>2</v>
@@ -1265,54 +1370,54 @@
         <v>87</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>2</v>
@@ -1324,33 +1429,9 @@
         <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1358,33 +1439,31 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://habr.com/ru/sandbox/251120/" xr:uid="{F4F0EE03-7878-1D4F-982C-8A9B4A55E452}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{1FD6E7BF-ADEC-F249-B7EB-E53792C3B58B}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{7DA0074E-6E4D-D949-B62E-4498E3A65299}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{F1914651-EFBC-5F4D-B6C4-9D7471C4FB8B}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{74F4E9EE-A4FC-1749-B7A8-97BF6C7FFC0B}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{D66336A4-6039-9E48-A311-06AF6DEE9E36}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{157F3249-5FD2-E24E-81B0-C61822B531AB}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{01847CED-2BDA-B148-A586-454DFCFAAE2E}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{0B6325B8-5C1A-8741-B042-2571190A2E98}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{F43C402A-B67C-B84C-A582-E3796DF03F52}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{299B7038-01C9-014F-8D73-81095B7B0628}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{108201F6-4AB9-8E41-A100-0303A9947485}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{30FC60A8-6924-C645-9168-0ED768DCAB76}"/>
-    <hyperlink ref="D18:D21" r:id="rId14" display="link" xr:uid="{5BD71B64-16EA-E04A-B293-0EBC2F71A867}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{DC3B7D15-6D10-0847-868D-A8CDBA79A7A2}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{D1391990-51C0-C649-B1E9-62C9E51BB160}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{11B27D51-3DC2-E84A-B3D4-65D75BA95890}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{9EF48994-A63A-4245-B961-8B84AF0906C1}"/>
-    <hyperlink ref="D9" r:id="rId19" xr:uid="{7691DC57-6785-D24E-90B8-44D3854EB797}"/>
-    <hyperlink ref="D10:D12" r:id="rId20" display="link" xr:uid="{170D4B78-B8F2-A141-B920-32CBA29AA8AD}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{430DB22F-CD8B-BD41-8859-EFE99E17D7A1}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{CE842875-4273-124E-93F8-7BF32CFEAB2E}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{048D0543-17E8-0449-9F9E-9145BDA1DD5D}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{F1914651-EFBC-5F4D-B6C4-9D7471C4FB8B}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{74F4E9EE-A4FC-1749-B7A8-97BF6C7FFC0B}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{D66336A4-6039-9E48-A311-06AF6DEE9E36}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{157F3249-5FD2-E24E-81B0-C61822B531AB}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{01847CED-2BDA-B148-A586-454DFCFAAE2E}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{0B6325B8-5C1A-8741-B042-2571190A2E98}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{F43C402A-B67C-B84C-A582-E3796DF03F52}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{299B7038-01C9-014F-8D73-81095B7B0628}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{108201F6-4AB9-8E41-A100-0303A9947485}"/>
+    <hyperlink ref="D16:D19" r:id="rId12" display="link" xr:uid="{5BD71B64-16EA-E04A-B293-0EBC2F71A867}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{DC3B7D15-6D10-0847-868D-A8CDBA79A7A2}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{D1391990-51C0-C649-B1E9-62C9E51BB160}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{11B27D51-3DC2-E84A-B3D4-65D75BA95890}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{9EF48994-A63A-4245-B961-8B84AF0906C1}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{7691DC57-6785-D24E-90B8-44D3854EB797}"/>
+    <hyperlink ref="D8:D10" r:id="rId18" display="link" xr:uid="{170D4B78-B8F2-A141-B920-32CBA29AA8AD}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{430DB22F-CD8B-BD41-8859-EFE99E17D7A1}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{CE842875-4273-124E-93F8-7BF32CFEAB2E}"/>
+    <hyperlink ref="D10" r:id="rId21" xr:uid="{048D0543-17E8-0449-9F9E-9145BDA1DD5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0644AAFA-5E9F-9740-AD42-2F06C5E6E921}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -1657,18 +1736,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1709,12 +1788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063AD9E-AFAD-0848-9099-688362622329}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1797,6 +1876,20 @@
         <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1806,12 +1899,13 @@
     <hyperlink ref="D3" r:id="rId2" location="DLtk60VM3TvXMj1x" xr:uid="{E0FD14B9-C7CB-CF4D-978B-3D510033A6C4}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{9EB02AE6-AEA3-8048-B979-AEED27E623F1}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{013D9C20-83F3-F84D-891E-F31657C35DFD}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{30FC60A8-6924-C645-9168-0ED768DCAB76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76DDC76-C123-B848-83BA-3738CABF3DE8}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1842,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F2E9E6-A292-D84E-BB2D-748C383D259D}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/src/llm_presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8D797-B3F2-1C46-AC71-3E72B8415F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5CE71-DD64-7046-A5DD-8C7F639EA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="28160" windowHeight="18360" xr2:uid="{920C1200-9934-0B40-B38B-4432FB724E31}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="113">
   <si>
     <t>Название</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Определения основных психических процессов</t>
   </si>
   <si>
-    <t>связь ценностей человека и влияние ИИ на него</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -352,6 +349,39 @@
   </si>
   <si>
     <t>SRC-003</t>
+  </si>
+  <si>
+    <t>SRC-004</t>
+  </si>
+  <si>
+    <t>Когнитивная психология</t>
+  </si>
+  <si>
+    <t>SRC-005</t>
+  </si>
+  <si>
+    <t>связь между работой мозга и когнитивными процессами</t>
+  </si>
+  <si>
+    <t>Основные индикаторы когнитивных компетенций</t>
+  </si>
+  <si>
+    <t>про когнитивные компетенции</t>
+  </si>
+  <si>
+    <t>SRC-006</t>
+  </si>
+  <si>
+    <t>Формирование профессиональных компетенций современного разработчика ПО</t>
+  </si>
+  <si>
+    <t>связь ценностей человека и влияние ИИ на него. Разница между информацией и знаниями. Постулат о том, что для творческой деятельности необходима базовая организация сознания</t>
+  </si>
+  <si>
+    <t>SRC-007</t>
+  </si>
+  <si>
+    <t>Специфика формирования профессиональных компетенций специалистов IT-сферы</t>
   </si>
 </sst>
 </file>
@@ -415,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -451,6 +481,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,26 +803,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583DE8D0-1F1C-9144-B814-750D9E9BB694}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="105.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="71.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="72.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>32</v>
@@ -801,9 +837,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -818,12 +854,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
@@ -850,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>6</v>
@@ -864,12 +900,12 @@
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -880,6 +916,80 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="15" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="15" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -889,6 +999,10 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{994E4335-88A9-164E-A140-87C8A5067F00}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{EB9D98CD-4AF3-7B47-B3A5-B1B0CBE59371}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{2AE30559-A289-8B44-82DD-E7DDAC3B48D7}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{2647FD45-BE73-A346-AB2A-9B199F2C5F57}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{F2AD3588-398E-0141-93EA-5EE3F525DEBE}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{169597B0-E0B9-1A4B-836A-B75F32125A8D}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{62B859D3-CB28-A44D-A206-E51AE8E13246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
